--- a/Cuadros/q37.xlsx
+++ b/Cuadros/q37.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4DB73B-1893-4024-88E2-AA743AF588E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987E801D-4157-44D6-B910-FF0FA50D8539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A07CCEEA-A74F-414F-B324-71F654A3B5E8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Up to 3 months</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>q37_operate_savings</t>
+  </si>
+  <si>
+    <t>We have no savings or reserves</t>
   </si>
 </sst>
 </file>
@@ -429,9 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6348330C-7B79-469A-B41F-D4AF51D74766}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -609,6 +614,35 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>451</v>
+      </c>
+      <c r="C7">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>170</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
